--- a/biology/Botanique/Ovule_(botanique)/Ovule_(botanique).xlsx
+++ b/biology/Botanique/Ovule_(botanique)/Ovule_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, l'ovule est un organe qui contient le gamète femelle. Il s'agit du macrosporange des Spermaphytes. Il renferme le gamétophyte femelle (le sac embryonnaire) qui contient le gamète femelle.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure de l'ovule
-L’ovule des végétaux est très différent d’un gamète animal : il est composé d'un sac embryonnaire composé de cellules haploïdes correspondant à un gamétophyte, formé à partir d'une mégaspore. Celui-ci est entouré d'un nucelle diploïde, puis d'un ou deux enveloppe(s) ou tégument(s) diploïde(s), s'ouvrant sur l'extérieur par une ouverture appelée micropyle.
-Structure des enveloppes
-Ovules nus
-Chez les Gymnospermes, l'ovule est nu, c'est-à-dire qu'il n'est pas protégé par un ovaire.
-Ovules et ovaire
-Chez les Angiospermes, l'ovule est enfermé dans un ovaire. Il est relié à ce dernier par un funicule, qui contient des vaisseaux conducteurs qui aboutissent au niveau d'une zone appelée chalaze.
+          <t>Structure de l'ovule</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ovule des végétaux est très différent d’un gamète animal : il est composé d'un sac embryonnaire composé de cellules haploïdes correspondant à un gamétophyte, formé à partir d'une mégaspore. Celui-ci est entouré d'un nucelle diploïde, puis d'un ou deux enveloppe(s) ou tégument(s) diploïde(s), s'ouvrant sur l'extérieur par une ouverture appelée micropyle.
 </t>
         </is>
       </c>
@@ -545,10 +557,94 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Structure de l'ovule et de ses enveloppes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Structure des enveloppes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ovules nus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les Gymnospermes, l'ovule est nu, c'est-à-dire qu'il n'est pas protégé par un ovaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ovule_(botanique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ovule_(botanique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure de l'ovule et de ses enveloppes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Structure des enveloppes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ovules et ovaire</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les Angiospermes, l'ovule est enfermé dans un ovaire. Il est relié à ce dernier par un funicule, qui contient des vaisseaux conducteurs qui aboutissent au niveau d'une zone appelée chalaze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ovule_(botanique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ovule_(botanique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Insertion de l'ovule dans l'ovaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les Angiospermes, selon la position du sac embryonnaire par rapport au micropyle, au chalaze et au funicule, on distingue plusieurs types d’ovules.
 Les ovules orthotropes ont le micropyle, le sac embryonnaire, le chalaze et le funicule alignés. C'est le type le plus simple, présent chez les genres Piper ou Renouée (Polygonum) par exemple.
